--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itzy/Documents/ITESO/6to semestre/Simulación de procesos financieros/Proyecto_modulo1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{785A67AE-182A-7445-8BF0-40B62021CD17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93704381-86BC-2E43-A4B6-742948489D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{34C19925-DF4F-504C-BF54-FA7F2089143F}"/>
   </bookViews>
@@ -423,10 +423,19 @@
   <dimension ref="A1:K264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -562,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>29</v>
@@ -982,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>34</v>
@@ -1227,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="K23">
         <v>23</v>
@@ -1720,7 +1729,7 @@
         <v>29</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1752,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="K38">
         <v>26</v>
@@ -1857,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="K41">
         <v>17</v>
@@ -1965,7 +1974,7 @@
         <v>21</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1997,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>28</v>
@@ -2560,7 +2569,7 @@
         <v>26</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2595,7 +2604,7 @@
         <v>45</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2627,10 +2636,10 @@
         <v>1</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -3117,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="K77">
         <v>19</v>
@@ -3432,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="K86">
         <v>23</v>
@@ -3572,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="K90">
         <v>35</v>
@@ -3922,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="K100">
         <v>22</v>
@@ -3957,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K101">
         <v>22</v>
@@ -3992,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K102">
         <v>13</v>
@@ -4100,7 +4109,7 @@
         <v>63</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
@@ -4132,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="K106">
         <v>23</v>
@@ -4202,7 +4211,7 @@
         <v>2</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="K108">
         <v>37</v>
@@ -4342,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K112">
         <v>36</v>
@@ -4377,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K113">
         <v>43</v>
@@ -4762,7 +4771,7 @@
         <v>2</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="K124">
         <v>27</v>
@@ -4972,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="K130">
         <v>75</v>
@@ -5077,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>27</v>
@@ -5287,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="K139">
         <v>19</v>
@@ -5322,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="K140">
         <v>16</v>
@@ -5427,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>37</v>
@@ -5847,7 +5856,7 @@
         <v>2</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="K155">
         <v>88</v>
@@ -6267,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="K167">
         <v>30</v>
@@ -6375,7 +6384,7 @@
         <v>22</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -6652,7 +6661,7 @@
         <v>2</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K178">
         <v>43</v>
@@ -6862,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="K184">
         <v>31</v>
@@ -7212,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K194">
         <v>3</v>
@@ -7247,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K195">
         <v>49</v>
@@ -7527,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="J203">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="K203">
         <v>43</v>
@@ -7737,7 +7746,7 @@
         <v>1</v>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="K209">
         <v>46</v>
@@ -7982,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="K216">
         <v>30</v>
@@ -8192,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K222">
         <v>57</v>
@@ -8262,7 +8271,7 @@
         <v>2</v>
       </c>
       <c r="J224">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="K224">
         <v>42</v>
@@ -8472,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="K230">
         <v>40</v>
@@ -8507,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="K231">
         <v>16</v>
@@ -8577,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="K233">
         <v>34</v>
@@ -8647,7 +8656,7 @@
         <v>2</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K235">
         <v>22</v>
@@ -8717,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="K237">
         <v>31</v>
@@ -8787,7 +8796,7 @@
         <v>2</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="K239">
         <v>81</v>
@@ -9172,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="K250">
         <v>17</v>
@@ -9347,7 +9356,7 @@
         <v>2</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="K255">
         <v>32</v>
@@ -9627,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="J263">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K263">
         <v>53</v>
